--- a/PokemonGame/src/CreateNewPokeAI/Data/CSVs/CurrentPokeEditable.xlsx
+++ b/PokemonGame/src/CreateNewPokeAI/Data/CSVs/CurrentPokeEditable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\IdeaProjects\PokemonGame2\PokemonGame\src\CreateNewPokeAI\Data\CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812F9EC2-8FF4-4AFD-89C6-F2E7EA87BDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA18949-25A7-4137-A315-C216B5E77F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28695" yWindow="5940" windowWidth="17280" windowHeight="8880" xr2:uid="{E8CCA08E-141E-4AF1-8542-E5A0A228776E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>Name</t>
   </si>
@@ -620,6 +620,24 @@
   </si>
   <si>
     <t>BasculegionFemale.png</t>
+  </si>
+  <si>
+    <t>Zapdos</t>
+  </si>
+  <si>
+    <t>Zapdos.png</t>
+  </si>
+  <si>
+    <t>Mewtwo</t>
+  </si>
+  <si>
+    <t>Mew</t>
+  </si>
+  <si>
+    <t>Mew.png</t>
+  </si>
+  <si>
+    <t>Mewtwo.png</t>
   </si>
 </sst>
 </file>
@@ -971,11 +989,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56042D34-3CF6-4ABA-8B3A-014D20A0AE5E}">
-  <dimension ref="A1:AG82"/>
+  <dimension ref="A1:AG85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2505,1054 +2523,1153 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>198</v>
+      </c>
+      <c r="B48" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="L48">
+        <f>SUM(100,100,100,100,100,100)</f>
+        <v>600</v>
+      </c>
+      <c r="M48">
+        <v>45</v>
+      </c>
+      <c r="N48">
+        <v>270</v>
+      </c>
+      <c r="Y48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>197</v>
+      </c>
+      <c r="B49" t="s">
+        <v>200</v>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>269</v>
+      </c>
+      <c r="L49">
+        <f>SUM(90,110,106,154,90,130)</f>
+        <v>680</v>
+      </c>
+      <c r="M49">
+        <v>3</v>
+      </c>
+      <c r="N49">
+        <v>306</v>
+      </c>
+      <c r="Y49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>120</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
         <v>121</v>
       </c>
-      <c r="F48" t="b">
-        <v>1</v>
-      </c>
-      <c r="K48">
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50">
         <v>21.8</v>
       </c>
-      <c r="L48">
+      <c r="L50">
         <f>SUM(55,20,50,25,25,30)</f>
         <v>205</v>
       </c>
-      <c r="M48">
+      <c r="M50">
         <v>120</v>
       </c>
-      <c r="N48">
+      <c r="N50">
         <v>72</v>
       </c>
-      <c r="Z48" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="Z50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>122</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" t="s">
         <v>123</v>
       </c>
-      <c r="F49" t="b">
-        <v>1</v>
-      </c>
-      <c r="K49">
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+      <c r="K51">
         <v>81.599999999999994</v>
       </c>
-      <c r="L49">
+      <c r="L51">
         <f>SUM(70,50,60,50,90,65)</f>
         <v>385</v>
       </c>
-      <c r="M49">
+      <c r="M51">
         <v>127</v>
       </c>
-      <c r="N49">
+      <c r="N51">
         <v>147</v>
       </c>
-      <c r="AC49" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="AC51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>124</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>125</v>
       </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="K50">
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="K52">
         <v>357.1</v>
       </c>
-      <c r="L50">
+      <c r="L52">
         <f>SUM(79,60,95,100,125,81)</f>
         <v>540</v>
       </c>
-      <c r="M50">
+      <c r="M52">
         <v>60</v>
       </c>
-      <c r="N50">
+      <c r="N52">
         <v>189</v>
       </c>
-      <c r="Q50" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="Q52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>126</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
         <v>127</v>
       </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="K51">
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="K53">
         <v>9.3000000000000007</v>
       </c>
-      <c r="L51">
+      <c r="L53">
         <f>SUM(40,50,60,85,75,95)</f>
         <v>405</v>
       </c>
-      <c r="M51">
+      <c r="M53">
         <v>200</v>
       </c>
-      <c r="N51">
+      <c r="N53">
         <v>142</v>
       </c>
-      <c r="S51" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="S53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>128</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>129</v>
       </c>
-      <c r="C52" t="b">
-        <v>1</v>
-      </c>
-      <c r="E52" t="b">
-        <v>1</v>
-      </c>
-      <c r="K52">
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="K54">
         <v>132.30000000000001</v>
       </c>
-      <c r="L52">
+      <c r="L54">
         <f>SUM(90,100,90,125,85,90)</f>
         <v>580</v>
       </c>
-      <c r="M52">
+      <c r="M54">
         <v>3</v>
       </c>
-      <c r="N52">
+      <c r="N54">
         <v>261</v>
       </c>
-      <c r="P52" t="b">
-        <v>1</v>
-      </c>
-      <c r="X52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="X54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>130</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" t="s">
         <v>131</v>
       </c>
-      <c r="D53" t="b">
-        <v>1</v>
-      </c>
-      <c r="K53">
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="K55">
         <v>89.9</v>
       </c>
-      <c r="L53">
+      <c r="L55">
         <f>SUM(50,50,100,86,96,70)</f>
         <v>452</v>
       </c>
-      <c r="M53">
+      <c r="M55">
         <v>90</v>
       </c>
-      <c r="N53">
+      <c r="N55">
         <v>162</v>
       </c>
-      <c r="O53" t="b">
-        <v>1</v>
-      </c>
-      <c r="X53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="O55" t="b">
+        <v>1</v>
+      </c>
+      <c r="X55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>132</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" t="s">
         <v>133</v>
       </c>
-      <c r="J54" t="b">
-        <v>1</v>
-      </c>
-      <c r="K54">
+      <c r="J56" t="b">
+        <v>1</v>
+      </c>
+      <c r="K56">
         <v>11.9</v>
       </c>
-      <c r="L54">
+      <c r="L56">
         <f>SUM(55,75,45,75,65,30)</f>
         <v>345</v>
       </c>
-      <c r="M54">
+      <c r="M56">
         <v>255</v>
       </c>
-      <c r="N54">
+      <c r="N56">
         <v>64</v>
       </c>
-      <c r="R54" t="b">
-        <v>1</v>
-      </c>
-      <c r="V54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="R56" t="b">
+        <v>1</v>
+      </c>
+      <c r="V56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>134</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B57" t="s">
         <v>135</v>
       </c>
-      <c r="J55" t="b">
-        <v>1</v>
-      </c>
-      <c r="K55">
+      <c r="J57" t="b">
+        <v>1</v>
+      </c>
+      <c r="K57">
         <v>25.6</v>
       </c>
-      <c r="L55">
+      <c r="L57">
         <f>SUM(39,55,45,35,39,42)</f>
         <v>255</v>
       </c>
-      <c r="M55">
+      <c r="M57">
         <v>255</v>
       </c>
-      <c r="N55">
+      <c r="N57">
         <v>51</v>
       </c>
-      <c r="O55" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="O57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>136</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B58" t="s">
         <v>137</v>
       </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="K56">
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="K58">
         <v>111.3</v>
       </c>
-      <c r="L56">
+      <c r="L58">
         <f>SUM(75,80,83,70,70,101)</f>
         <v>479</v>
       </c>
-      <c r="M56">
+      <c r="M58">
         <v>45</v>
       </c>
-      <c r="N56">
+      <c r="N58">
         <v>172</v>
       </c>
-      <c r="O56" t="b">
-        <v>1</v>
-      </c>
-      <c r="X56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="O58" t="b">
+        <v>1</v>
+      </c>
+      <c r="X58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>138</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
         <v>139</v>
       </c>
-      <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="K57">
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="K59">
         <v>66.099999999999994</v>
       </c>
-      <c r="L57">
+      <c r="L59">
         <f>SUM(55,60,63,50,50,71)</f>
         <v>349</v>
       </c>
-      <c r="M57">
+      <c r="M59">
         <v>120</v>
       </c>
-      <c r="N57">
+      <c r="N59">
         <v>113</v>
       </c>
-      <c r="O57" t="b">
-        <v>1</v>
-      </c>
-      <c r="X57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="O59" t="b">
+        <v>1</v>
+      </c>
+      <c r="X59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>140</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B60" t="s">
         <v>141</v>
       </c>
-      <c r="H58" t="b">
-        <v>1</v>
-      </c>
-      <c r="K58">
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="K60">
         <v>4</v>
       </c>
-      <c r="L58">
+      <c r="L60">
         <f>SUM(40,45,40,35,35,56)</f>
         <v>251</v>
       </c>
-      <c r="M58">
+      <c r="M60">
         <v>255</v>
       </c>
-      <c r="N58">
+      <c r="N60">
         <v>55</v>
       </c>
-      <c r="O58" t="b">
-        <v>1</v>
-      </c>
-      <c r="X58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="O60" t="b">
+        <v>1</v>
+      </c>
+      <c r="X60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>142</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B61" t="s">
         <v>143</v>
       </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="K59">
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="K61">
         <v>2.6</v>
       </c>
-      <c r="L59">
+      <c r="L61">
         <f>SUM(30,75,35,30,30,65)</f>
         <v>265</v>
       </c>
-      <c r="M59">
+      <c r="M61">
         <v>255</v>
       </c>
-      <c r="N59">
+      <c r="N61">
         <v>53</v>
       </c>
-      <c r="O59" t="b">
-        <v>1</v>
-      </c>
-      <c r="X59" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="O61" t="b">
+        <v>1</v>
+      </c>
+      <c r="X61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>144</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B62" t="s">
         <v>145</v>
       </c>
-      <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="K60">
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+      <c r="K62">
         <v>15.6</v>
       </c>
-      <c r="L60">
+      <c r="L62">
         <f>SUM(90,65,50,35,35,15)</f>
         <v>290</v>
       </c>
-      <c r="M60">
+      <c r="M62">
         <v>199</v>
       </c>
-      <c r="N60">
+      <c r="N62">
         <v>58</v>
       </c>
-      <c r="Z60" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="Z62" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>146</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B63" t="s">
         <v>147</v>
       </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="K61">
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="K63">
         <v>9.3000000000000007</v>
       </c>
-      <c r="L61">
+      <c r="L63">
         <f>SUM(40,50,60,85,75,95)</f>
         <v>405</v>
       </c>
-      <c r="M61">
+      <c r="M63">
         <v>200</v>
       </c>
-      <c r="N61">
+      <c r="N63">
         <v>142</v>
       </c>
-      <c r="S61" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG61" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="S63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>148</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B64" t="s">
         <v>149</v>
       </c>
-      <c r="J62" t="b">
-        <v>1</v>
-      </c>
-      <c r="K62">
+      <c r="J64" t="b">
+        <v>1</v>
+      </c>
+      <c r="K64">
         <v>30</v>
       </c>
-      <c r="L62">
+      <c r="L64">
         <f>SUM(35,55,35,30,30,35)</f>
         <v>220</v>
       </c>
-      <c r="M62">
+      <c r="M64">
         <v>255</v>
       </c>
-      <c r="N62">
+      <c r="N64">
         <v>56</v>
       </c>
-      <c r="AC62" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="AC64" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>150</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B65" t="s">
         <v>151</v>
       </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="K63">
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+      <c r="K65">
         <v>40.799999999999997</v>
       </c>
-      <c r="L63">
+      <c r="L65">
         <f>SUM(60,81,55,50,70,97)</f>
         <v>413</v>
       </c>
-      <c r="M63">
+      <c r="M65">
         <v>147</v>
       </c>
-      <c r="N63">
+      <c r="N65">
         <v>145</v>
       </c>
-      <c r="O63" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG63" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="O65" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>152</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B66" t="s">
         <v>153</v>
       </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="K64">
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="K66">
         <v>7.7</v>
       </c>
-      <c r="L64">
+      <c r="L66">
         <f>SUM(35,56,30,25,35,72)</f>
         <v>253</v>
       </c>
-      <c r="M64">
+      <c r="M66">
         <v>255</v>
       </c>
-      <c r="N64">
+      <c r="N66">
         <v>51</v>
       </c>
-      <c r="O64" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="O66" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>154</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B67" t="s">
         <v>155</v>
       </c>
-      <c r="F65" t="b">
-        <v>1</v>
-      </c>
-      <c r="K65">
+      <c r="F67" t="b">
+        <v>1</v>
+      </c>
+      <c r="K67">
         <v>66.099999999999994</v>
       </c>
-      <c r="L65">
+      <c r="L67">
         <f>SUM(115,90,65,45,115,58)</f>
         <v>488</v>
       </c>
-      <c r="M65">
+      <c r="M67">
         <v>90</v>
       </c>
-      <c r="N65">
+      <c r="N67">
         <v>171</v>
       </c>
-      <c r="U65" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="U67" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>156</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B68" t="s">
         <v>157</v>
       </c>
-      <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="K66">
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="K68">
         <v>26</v>
       </c>
-      <c r="L66">
+      <c r="L68">
         <f>SUM(70,75,50,35,70,48)</f>
         <v>348</v>
       </c>
-      <c r="M66">
+      <c r="M68">
         <v>180</v>
       </c>
-      <c r="N66">
+      <c r="N68">
         <v>70</v>
       </c>
-      <c r="U66" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="U68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>158</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B69" t="s">
         <v>159</v>
       </c>
-      <c r="J67" t="b">
-        <v>1</v>
-      </c>
-      <c r="K67">
+      <c r="J69" t="b">
+        <v>1</v>
+      </c>
+      <c r="K69">
         <v>13.2</v>
       </c>
-      <c r="L67">
+      <c r="L69">
         <f>SUM(34,46,35,35,45,20)</f>
         <v>215</v>
       </c>
-      <c r="M67">
+      <c r="M69">
         <v>255</v>
       </c>
-      <c r="N67">
+      <c r="N69">
         <v>43</v>
       </c>
-      <c r="O67" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="O69" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>160</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B70" t="s">
         <v>161</v>
       </c>
-      <c r="E68" t="b">
-        <v>1</v>
-      </c>
-      <c r="K68">
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="K70">
         <v>53</v>
       </c>
-      <c r="L68">
+      <c r="L70">
         <f>SUM(34,65,45,40,34,45)</f>
         <v>263</v>
       </c>
-      <c r="M68">
+      <c r="M70">
         <v>235</v>
       </c>
-      <c r="N68">
+      <c r="N70">
         <v>43</v>
       </c>
-      <c r="S68" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="S70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>162</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B71" t="s">
         <v>163</v>
       </c>
-      <c r="D69" t="b">
-        <v>1</v>
-      </c>
-      <c r="K69">
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+      <c r="K71">
         <v>22</v>
       </c>
-      <c r="L69">
+      <c r="L71">
         <f>SUM(55,35,50,25,25,15)</f>
         <v>205</v>
       </c>
-      <c r="M69">
+      <c r="M71">
         <v>120</v>
       </c>
-      <c r="N69">
+      <c r="N71">
         <v>71</v>
       </c>
-      <c r="Z69" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="Z71" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>164</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B72" t="s">
         <v>165</v>
       </c>
-      <c r="J70" t="b">
-        <v>1</v>
-      </c>
-      <c r="K70">
+      <c r="J72" t="b">
+        <v>1</v>
+      </c>
+      <c r="K72">
         <v>18.7</v>
       </c>
-      <c r="L70">
+      <c r="L72">
         <f>SUM(40,60,40,40,40,30)</f>
         <v>250</v>
       </c>
-      <c r="M70">
+      <c r="M72">
         <v>255</v>
       </c>
-      <c r="N70">
+      <c r="N72">
         <v>50</v>
       </c>
-      <c r="V70" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="V72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>166</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B73" t="s">
         <v>167</v>
       </c>
-      <c r="F71" t="b">
-        <v>1</v>
-      </c>
-      <c r="K71">
+      <c r="F73" t="b">
+        <v>1</v>
+      </c>
+      <c r="K73">
         <v>18.7</v>
       </c>
-      <c r="L71">
+      <c r="L73">
         <f>SUM(65,48,44,50,64,43)</f>
         <v>314</v>
       </c>
-      <c r="M71">
+      <c r="M73">
         <v>45</v>
       </c>
-      <c r="N71">
+      <c r="N73">
         <v>63</v>
       </c>
-      <c r="Q71" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="Q73" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>168</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B74" t="s">
         <v>169</v>
       </c>
-      <c r="H72" t="b">
-        <v>1</v>
-      </c>
-      <c r="K72">
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="K74">
         <v>134.5</v>
       </c>
-      <c r="L72">
+      <c r="L74">
         <f>SUM(90,110,85,45,90,80)</f>
         <v>500</v>
       </c>
-      <c r="M72">
+      <c r="M74">
         <v>45</v>
       </c>
-      <c r="N72">
+      <c r="N74">
         <v>225</v>
       </c>
-      <c r="O72" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="O74" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>170</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B75" t="s">
         <v>171</v>
       </c>
-      <c r="E73" t="b">
-        <v>1</v>
-      </c>
-      <c r="K73">
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+      <c r="K75">
         <v>57.3</v>
       </c>
-      <c r="L73">
+      <c r="L75">
         <f>SUM(75,120,80,75,75,60)</f>
         <v>485</v>
       </c>
-      <c r="M73">
+      <c r="M75">
         <v>45</v>
       </c>
-      <c r="N73">
+      <c r="N75">
         <v>218</v>
       </c>
-      <c r="O73" t="b">
-        <v>1</v>
-      </c>
-      <c r="X73" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="O75" t="b">
+        <v>1</v>
+      </c>
+      <c r="X75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>172</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B76" t="s">
         <v>173</v>
       </c>
-      <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="K74">
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+      <c r="K76">
         <v>32.6</v>
       </c>
-      <c r="L74">
+      <c r="L76">
         <f>SUM(50,85,55,40,50,75)</f>
         <v>355</v>
       </c>
-      <c r="M74">
+      <c r="M76">
         <v>120</v>
       </c>
-      <c r="N74">
+      <c r="N76">
         <v>50</v>
       </c>
-      <c r="O74" t="b">
-        <v>1</v>
-      </c>
-      <c r="X74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="O76" t="b">
+        <v>1</v>
+      </c>
+      <c r="X76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>174</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B77" t="s">
         <v>175</v>
       </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="K75">
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="K77">
         <v>220.5</v>
       </c>
-      <c r="L75">
+      <c r="L77">
         <f>SUM(83,82,80,100,100,80)</f>
         <v>525</v>
       </c>
-      <c r="M75">
+      <c r="M77">
         <v>45</v>
       </c>
-      <c r="N75">
+      <c r="N77">
         <v>263</v>
       </c>
-      <c r="R75" t="b">
-        <v>1</v>
-      </c>
-      <c r="V75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="R77" t="b">
+        <v>1</v>
+      </c>
+      <c r="V77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>176</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B78" t="s">
         <v>177</v>
       </c>
-      <c r="E76" t="b">
-        <v>1</v>
-      </c>
-      <c r="K76">
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+      <c r="K78">
         <v>34.5</v>
       </c>
-      <c r="L76">
+      <c r="L78">
         <f>SUM(65,105,80,100,70,70)</f>
         <v>490</v>
       </c>
-      <c r="M76">
+      <c r="M78">
         <v>45</v>
       </c>
-      <c r="N76">
+      <c r="N78">
         <v>221</v>
       </c>
-      <c r="R76" t="b">
-        <v>1</v>
-      </c>
-      <c r="V76" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="R78" t="b">
+        <v>1</v>
+      </c>
+      <c r="V78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>178</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B79" t="s">
         <v>179</v>
       </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="K77">
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="K79">
         <v>41</v>
       </c>
-      <c r="L77">
+      <c r="L79">
         <f>SUM(85,80,75,110,90,50)</f>
         <v>490</v>
       </c>
-      <c r="M77">
+      <c r="M79">
         <v>45</v>
       </c>
-      <c r="N77">
+      <c r="N79">
         <v>221</v>
       </c>
-      <c r="R77" t="b">
-        <v>1</v>
-      </c>
-      <c r="V77" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="R79" t="b">
+        <v>1</v>
+      </c>
+      <c r="V79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>180</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B80" t="s">
         <v>181</v>
       </c>
-      <c r="F78" t="b">
-        <v>1</v>
-      </c>
-      <c r="K78">
+      <c r="F80" t="b">
+        <v>1</v>
+      </c>
+      <c r="K80">
         <v>49.6</v>
       </c>
-      <c r="L78">
+      <c r="L80">
         <f>SUM(80,63,59,65,80,58)</f>
         <v>405</v>
       </c>
-      <c r="M78">
+      <c r="M80">
         <v>45</v>
       </c>
-      <c r="N78">
+      <c r="N80">
         <v>142</v>
       </c>
-      <c r="Q78" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG78" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="Q80" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>182</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B81" t="s">
         <v>183</v>
       </c>
-      <c r="E79" t="b">
-        <v>1</v>
-      </c>
-      <c r="K79">
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+      <c r="K81">
         <v>59.5</v>
       </c>
-      <c r="L79">
+      <c r="L81">
         <f>SUM(69,85,60,60,69,77)</f>
         <v>420</v>
       </c>
-      <c r="M79">
+      <c r="M81">
         <v>255</v>
       </c>
-      <c r="N79">
+      <c r="N81">
         <v>147</v>
       </c>
-      <c r="O79" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG79" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="O81" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>184</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B82" t="s">
         <v>185</v>
       </c>
-      <c r="E80" t="b">
-        <v>1</v>
-      </c>
-      <c r="K80">
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+      <c r="K82">
         <v>14.1</v>
       </c>
-      <c r="L80">
+      <c r="L82">
         <f>SUM(50,90,65,85,45,55)</f>
         <v>390</v>
       </c>
-      <c r="M80">
+      <c r="M82">
         <v>120</v>
       </c>
-      <c r="N80">
+      <c r="N82">
         <v>137</v>
       </c>
-      <c r="R80" t="b">
-        <v>1</v>
-      </c>
-      <c r="V80" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="R82" t="b">
+        <v>1</v>
+      </c>
+      <c r="V82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>186</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B83" t="s">
         <v>187</v>
       </c>
-      <c r="D81" t="b">
-        <v>1</v>
-      </c>
-      <c r="K81">
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+      <c r="K83">
         <v>26.5</v>
       </c>
-      <c r="L81">
+      <c r="L83">
         <f>SUM(45,70,140,85,50,45)</f>
         <v>435</v>
       </c>
-      <c r="M81">
+      <c r="M83">
         <v>50</v>
       </c>
-      <c r="N81">
+      <c r="N83">
         <v>196</v>
       </c>
-      <c r="O81" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF81" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="O83" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>188</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B84" t="s">
         <v>189</v>
       </c>
-      <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="K82">
+      <c r="H84" t="b">
+        <v>1</v>
+      </c>
+      <c r="K84">
         <v>7.9</v>
       </c>
-      <c r="L82">
+      <c r="L84">
         <f>SUM(35,45,45,20,30,20)</f>
         <v>195</v>
       </c>
-      <c r="M82">
+      <c r="M84">
         <v>255</v>
       </c>
-      <c r="N82">
+      <c r="N84">
         <v>54</v>
       </c>
-      <c r="Z82" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG82" t="b">
+      <c r="Z84" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>195</v>
+      </c>
+      <c r="B85" t="s">
+        <v>196</v>
+      </c>
+      <c r="C85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>116</v>
+      </c>
+      <c r="L85">
+        <f>SUM(85,90,90,125,90,100)</f>
+        <v>580</v>
+      </c>
+      <c r="M85">
+        <v>3</v>
+      </c>
+      <c r="N85">
+        <v>261</v>
+      </c>
+      <c r="S85" t="b">
+        <v>1</v>
+      </c>
+      <c r="X85" t="b">
         <v>1</v>
       </c>
     </row>
